--- a/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF47AC2F-E73A-4E6F-89B1-86FAA475E37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED191D97-9C0F-445D-8985-B8B531127320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{5CE20125-2639-4C9F-B905-B82E6EA39933}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{F2F5F12E-CC23-4C8C-9EEF-D7BE29F1E267}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{7F3D8253-9E48-4923-BDFD-4015DB04937F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 4" guid="{95E39E7D-B0EE-4A0A-BE43-32C5BF1D9300}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{7F3D8253-9E48-4923-BDFD-4015DB04937F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{F2F5F12E-CC23-4C8C-9EEF-D7BE29F1E267}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{5CE20125-2639-4C9F-B905-B82E6EA39933}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -2534,16 +2534,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2555,6 +2545,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2776,8 +2776,8 @@
   </sheetPr>
   <dimension ref="A1:Z919"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2790,11 +2790,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2820,11 +2820,11 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2849,9 +2849,9 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2879,9 +2879,9 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -2975,7 +2975,7 @@
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="52" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2"/>
@@ -3009,7 +3009,7 @@
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3126,73 +3126,73 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" s="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="48" t="s">
+    <row r="12" spans="1:26" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+    </row>
+    <row r="13" spans="1:26" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
@@ -30644,21 +30644,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{5CE20125-2639-4C9F-B905-B82E6EA39933}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{7F3D8253-9E48-4923-BDFD-4015DB04937F}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{9C6F5D80-70A0-4A11-B507-425A9F0435B3}"/>
+      <autoFilter ref="A11:C37" xr:uid="{921886BE-0979-4285-B547-CB4118A8D1FC}"/>
+    </customSheetView>
+    <customSheetView guid="{F2F5F12E-CC23-4C8C-9EEF-D7BE29F1E267}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{70E02622-2C3C-47CC-8D9E-EF245E249E98}"/>
     </customSheetView>
     <customSheetView guid="{95E39E7D-B0EE-4A0A-BE43-32C5BF1D9300}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{E4E0F312-6058-4E15-85D5-C45669D608E4}"/>
+      <autoFilter ref="A11:D37" xr:uid="{FC14E219-BB2C-458F-B88B-6902C6DC85C9}"/>
     </customSheetView>
-    <customSheetView guid="{F2F5F12E-CC23-4C8C-9EEF-D7BE29F1E267}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{5CE20125-2639-4C9F-B905-B82E6EA39933}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{7699AC57-B1C3-44E1-9153-EE45DBA496A5}"/>
-    </customSheetView>
-    <customSheetView guid="{7F3D8253-9E48-4923-BDFD-4015DB04937F}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{8243913F-CBF3-4236-96A2-EA13A5A1C22C}"/>
+      <autoFilter ref="A293:C332" xr:uid="{3BB736A5-7A8C-4E24-8032-4735821482F5}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
@@ -31068,28 +31068,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
     </row>
     <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>

--- a/DSA by Shradha Didi & Aman Bhaiya.xlsx
+++ b/DSA by Shradha Didi & Aman Bhaiya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED191D97-9C0F-445D-8985-B8B531127320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE879B69-8DE2-4562-A8BC-A582E5C72B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   </definedNames>
   <calcPr calcId="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 4" guid="{95E39E7D-B0EE-4A0A-BE43-32C5BF1D9300}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{7F3D8253-9E48-4923-BDFD-4015DB04937F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 3" guid="{F2F5F12E-CC23-4C8C-9EEF-D7BE29F1E267}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 1" guid="{5CE20125-2639-4C9F-B905-B82E6EA39933}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 3" guid="{F2F5F12E-CC23-4C8C-9EEF-D7BE29F1E267}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 2" guid="{7F3D8253-9E48-4923-BDFD-4015DB04937F}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 4" guid="{95E39E7D-B0EE-4A0A-BE43-32C5BF1D9300}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -2329,7 +2329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2408,6 +2408,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2421,7 +2433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2555,6 +2567,17 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2777,7 +2800,7 @@
   <dimension ref="A1:Z919"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3194,41 +3217,41 @@
       <c r="Y13" s="47"/>
       <c r="Z13" s="47"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:26" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
@@ -30644,21 +30667,21 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7F3D8253-9E48-4923-BDFD-4015DB04937F}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{5CE20125-2639-4C9F-B905-B82E6EA39933}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:C37" xr:uid="{921886BE-0979-4285-B547-CB4118A8D1FC}"/>
+      <autoFilter ref="A293:C332" xr:uid="{B4ABC242-092C-45D5-97E9-907B770C26D2}"/>
+    </customSheetView>
+    <customSheetView guid="{95E39E7D-B0EE-4A0A-BE43-32C5BF1D9300}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A11:D37" xr:uid="{121B03FF-5C55-420F-B2B3-768F9F210700}"/>
     </customSheetView>
     <customSheetView guid="{F2F5F12E-CC23-4C8C-9EEF-D7BE29F1E267}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{70E02622-2C3C-47CC-8D9E-EF245E249E98}"/>
+      <autoFilter ref="A11:D37" xr:uid="{CBD43B0E-C17F-42E8-856D-BFA9B1D86869}"/>
     </customSheetView>
-    <customSheetView guid="{95E39E7D-B0EE-4A0A-BE43-32C5BF1D9300}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{7F3D8253-9E48-4923-BDFD-4015DB04937F}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A11:D37" xr:uid="{FC14E219-BB2C-458F-B88B-6902C6DC85C9}"/>
-    </customSheetView>
-    <customSheetView guid="{5CE20125-2639-4C9F-B905-B82E6EA39933}" filter="1" showAutoFilter="1">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A293:C332" xr:uid="{3BB736A5-7A8C-4E24-8032-4735821482F5}"/>
+      <autoFilter ref="A11:C37" xr:uid="{0E1792B8-78F2-4585-968F-17D3D81FDD2D}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="3">
